--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722753.3932887077</v>
+        <v>685923.1270274783</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12426458.88989895</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6381813.161497345</v>
+        <v>5739665.974240759</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9403040.189879954</v>
+        <v>9727509.939969771</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>32.55518202532681</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>126.4480502312962</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.1291242489668</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8092030868088</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>126.4617428240381</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.97092674249068</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>233.3934276525053</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>232.9816402794103</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>192.6668577520949</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.134210830219788</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>203.4560260907069</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>208.2474868886324</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>334.891386964615</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>79.41653965146619</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>23.94563726208646</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>308.7527626797901</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>23.79925355567413</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203959</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,13 +1615,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>229.7965692041383</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>236.9404504125632</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,16 +1849,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>288.8169092325609</v>
       </c>
       <c r="X17" t="n">
-        <v>93.91244618182625</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7.601081015447603</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.12472935313006</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>197.2040098788574</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>262.2618143196431</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.49360487439507</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>284.1870342025341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>16.32241046606805</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>227.735996773494</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>13.42874471570741</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>147.0290144562267</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>93.9124461818276</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="U28" t="n">
-        <v>272.254433173071</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>58.92805047992164</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.1478989722372</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>52.23490948285976</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>281.841801725266</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>121.0389903687753</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>132.0538998985144</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>210.1089145855752</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>91.88021536100133</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>14.3125920883927</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>58.92805047992061</v>
+        <v>120.608807415962</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250813</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>369.619675655536</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>126.5388824951713</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>142.6955872305736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>26.66925886831028</v>
       </c>
     </row>
     <row r="44">
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>188.2196394312107</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>51.9256969976581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>193.6049198359601</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.09711040012049</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C2" t="n">
-        <v>21.09711040012049</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>21.09711040012049</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>21.09711040012049</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>21.09711040012049</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S2" t="n">
-        <v>1021.97149775822</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>807.5374415933477</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U2" t="n">
-        <v>553.8524235344764</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V2" t="n">
-        <v>287.4747669672984</v>
+        <v>2056.333756926872</v>
       </c>
       <c r="W2" t="n">
-        <v>21.09711040012049</v>
+        <v>1703.565101656757</v>
       </c>
       <c r="X2" t="n">
-        <v>21.09711040012049</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.09711040012049</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>932.5028692494924</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C3" t="n">
-        <v>758.0498399683654</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D3" t="n">
-        <v>609.1154303071141</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>113.5972052500115</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>298.3188265310616</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>932.4978103101005</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>2015.115393042428</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>2447.023413292611</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1054.855520006025</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1054.855520006025</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1054.855520006025</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="C4" t="n">
-        <v>927.1163858403295</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="D4" t="n">
-        <v>776.9997464279937</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0866528456006</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>1347.327782578336</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>1301.902604050567</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>1012.485434013607</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.855520006025</v>
+        <v>784.4958831155894</v>
       </c>
       <c r="Y4" t="n">
-        <v>1054.855520006025</v>
+        <v>784.4958831155894</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.385664683499</v>
+        <v>1565.85028041841</v>
       </c>
       <c r="C5" t="n">
-        <v>787.4231477430878</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>429.1574491363373</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>43.36919653809311</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>43.36919653809311</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232718</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711869</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135168</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545598</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172449</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904656</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904656</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904656</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904656</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904656</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>1933.124836723433</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W5" t="n">
-        <v>1933.124836723433</v>
+        <v>1955.989612394222</v>
       </c>
       <c r="X5" t="n">
-        <v>1933.124836723433</v>
+        <v>1955.989612394222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.985504747621</v>
+        <v>1565.85028041841</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>672.528648459042</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C6" t="n">
-        <v>498.0756191779149</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D6" t="n">
-        <v>349.1412095166637</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E6" t="n">
-        <v>189.9037545112081</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F6" t="n">
-        <v>43.36919653809311</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G6" t="n">
-        <v>43.36919653809311</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809311</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562336</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504523</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L6" t="n">
-        <v>783.3386390093546</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.621361605351</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1555.403885599982</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O6" t="n">
-        <v>1846.763131854549</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2061.27154741545</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q6" t="n">
-        <v>2154.74554605989</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904656</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2168.459826904656</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T6" t="n">
-        <v>1973.846839276277</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U6" t="n">
-        <v>1745.745249409541</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V6" t="n">
-        <v>1510.593141177798</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W6" t="n">
-        <v>1256.355784449597</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X6" t="n">
-        <v>1048.504284244064</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y6" t="n">
-        <v>840.7439854791101</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>790.8517945543565</v>
+        <v>352.2580926322062</v>
       </c>
       <c r="C7" t="n">
-        <v>621.9156116264496</v>
+        <v>352.2580926322062</v>
       </c>
       <c r="D7" t="n">
-        <v>471.7989722141139</v>
+        <v>202.1414532198704</v>
       </c>
       <c r="E7" t="n">
-        <v>471.7989722141139</v>
+        <v>202.1414532198704</v>
       </c>
       <c r="F7" t="n">
-        <v>471.7989722141139</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>303.6661428091322</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>153.6259293129249</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>58.69630920174244</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246708</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>467.6240706728887</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640791</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.636306385109</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152953</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271087</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693648</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1377.19088246573</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1178.011396849957</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>972.5002593845962</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>972.5002593845962</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V7" t="n">
-        <v>972.5002593845962</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="W7" t="n">
-        <v>972.5002593845962</v>
+        <v>580.2476435302235</v>
       </c>
       <c r="X7" t="n">
-        <v>972.5002593845962</v>
+        <v>352.2580926322062</v>
       </c>
       <c r="Y7" t="n">
-        <v>972.5002593845962</v>
+        <v>352.2580926322062</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360221</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.63763941981</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.371940813059</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148151</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5977834252075</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1637.039290549545</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1637.039290549545</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424343</v>
+        <v>1246.899958573734</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145195</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>131.4655134886761</v>
       </c>
       <c r="C10" t="n">
-        <v>837.0793422748035</v>
+        <v>131.4655134886761</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624677</v>
+        <v>131.4655134886761</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800746</v>
+        <v>131.4655134886761</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821642</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>224.1731970904428</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>75.43429895394902</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>580.2476435302235</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>352.2580926322062</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>131.4655134886761</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5065,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2755.806928794324</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1590.514489367197</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C14" t="n">
-        <v>1221.551972426786</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D14" t="n">
-        <v>863.2862738200351</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
         <v>66.51211643218343</v>
@@ -5278,22 +5278,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>3093.488074938325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W14" t="n">
-        <v>2740.71941966821</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.25366140713</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y14" t="n">
-        <v>1977.114329431319</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5439,13 +5439,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1590.514489367197</v>
+        <v>1236.335336125843</v>
       </c>
       <c r="C17" t="n">
-        <v>1221.551972426786</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="D17" t="n">
-        <v>863.2862738200351</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>477.498021221791</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>66.5121164321834</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180638</v>
+        <v>2386.540266426856</v>
       </c>
       <c r="X17" t="n">
-        <v>1977.114329431319</v>
+        <v>2013.074508165776</v>
       </c>
       <c r="Y17" t="n">
-        <v>1977.114329431319</v>
+        <v>1622.935176189965</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5600,40 +5600,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>629.780563451991</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C19" t="n">
-        <v>460.8443805240842</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D19" t="n">
-        <v>310.7277411117484</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>310.7277411117484</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1919.61668847693</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W19" t="n">
-        <v>1094.090022971289</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X19" t="n">
-        <v>866.1004720732712</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y19" t="n">
-        <v>811.4290282822308</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2175.400891308157</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W20" t="n">
-        <v>3325.60582160917</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="X20" t="n">
-        <v>2952.14006334809</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y20" t="n">
-        <v>2562.000731372279</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>980.7518458718754</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C22" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D22" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.610059882606</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>1383.192889845645</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X22" t="n">
-        <v>1383.192889845645</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.400310702115</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796252</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C23" t="n">
-        <v>921.7704558796252</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D23" t="n">
-        <v>921.7704558796252</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E23" t="n">
-        <v>535.9822032813809</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>124.9962984917733</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>124.9962984917733</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3095.569461231905</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2764.506573888334</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2411.73791861822</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943747</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1735.608663915319</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.608663915319</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>1735.608663915319</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313594</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1590.514489367197</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>3177.09166559278</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>3177.09166559278</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X26" t="n">
-        <v>1977.114329431319</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.114329431319</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="27">
@@ -6296,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1876.06909054194</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>1876.06909054194</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>1876.06909054194</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>1876.06909054194</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.06909054194</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U28" t="n">
-        <v>3050.601343656574</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>2795.916855450688</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>2506.499685413727</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>2278.51013451571</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>2057.71755537218</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.542934265599</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W29" t="n">
-        <v>2994.542934265599</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X29" t="n">
-        <v>2994.542934265599</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y29" t="n">
-        <v>2731.767278738087</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C31" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D31" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X31" t="n">
-        <v>362.8175152271517</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y31" t="n">
-        <v>362.8175152271517</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1904.487375535336</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C32" t="n">
-        <v>1535.524858594925</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.259159988174</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6703,13 +6703,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6736,16 +6736,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066531</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796416</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535336</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y32" t="n">
-        <v>1904.487375535336</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2320.988771034577</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034577</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622242</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039849</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.32286476305</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888694</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V34" t="n">
-        <v>2320.988771034577</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W34" t="n">
-        <v>2320.988771034577</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X34" t="n">
-        <v>2320.988771034577</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y34" t="n">
-        <v>2320.988771034577</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.569348694472</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.60683175406</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>764.3411331473096</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>378.5528805490654</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6940,13 +6940,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6967,22 +6967,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265599</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995485</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734405</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.169188758593</v>
+        <v>1771.429619686766</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.32286476305</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888694</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682807</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W37" t="n">
-        <v>1989.118339645846</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X37" t="n">
-        <v>1761.128788747829</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y37" t="n">
-        <v>1540.336209604299</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2065.110222835252</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.14770589484</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D38" t="n">
-        <v>1337.88200728809</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E38" t="n">
-        <v>952.0937546898456</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="F38" t="n">
-        <v>541.1078499002381</v>
+        <v>188.3391946301248</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0353997452345</v>
+        <v>188.3391946301248</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7213,13 +7213,13 @@
         <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>3215.315153136266</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X38" t="n">
-        <v>2841.849394875186</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y38" t="n">
-        <v>2451.710062899374</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>2822.322864763051</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>2533.219997888694</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>2278.535509682808</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W40" t="n">
-        <v>1989.118339645847</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X40" t="n">
-        <v>1761.12878874783</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y40" t="n">
-        <v>1540.336209604299</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2047.583838282732</v>
+        <v>1605.601998493312</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>1236.6394815529</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1236.6394815529</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>850.8512289546557</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>439.8653241650481</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W41" t="n">
-        <v>3197.788768583745</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X41" t="n">
-        <v>2824.323010322666</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y41" t="n">
-        <v>2434.183678346854</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686079</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.191681214136</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>1638.191681214136</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038042</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097631</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.40402049088</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926361</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030285</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>298.6298631030285</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7669,31 +7669,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339056</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077976</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102164</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7718,16 +7718,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>601.818521755047</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="C46" t="n">
-        <v>432.8823388271401</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D46" t="n">
-        <v>380.4321398396066</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1548.361223971664</v>
+        <v>1318.281523398017</v>
       </c>
       <c r="V46" t="n">
-        <v>1293.676735765777</v>
+        <v>1063.59703519213</v>
       </c>
       <c r="W46" t="n">
-        <v>1004.259565728817</v>
+        <v>774.1798651551693</v>
       </c>
       <c r="X46" t="n">
-        <v>1004.259565728817</v>
+        <v>546.190314257152</v>
       </c>
       <c r="Y46" t="n">
-        <v>783.4669865852867</v>
+        <v>546.190314257152</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127218</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L6" t="n">
-        <v>281.962294544358</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>110.4806334621074</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.9531451156648</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>120.2125111738955</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>201.3042082388387</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.40405940090049</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.78507827458972</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>207.1667165813373</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>131.8794641185023</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>94.77061819072458</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22877,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046388</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09636055866883453</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22953,16 +22953,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>143.2868371927115</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>17.91179264359567</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>203.3002158843216</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>14.34958175279803</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>66.00450837146505</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>80.8509579418141</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>73.98107898369051</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>345.9318471227949</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.1651665445296</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>97.95568926599657</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>112.3005183048498</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.14213605696645</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23737,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>60.42405948485214</v>
       </c>
       <c r="X17" t="n">
-        <v>275.8186544966428</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>182.1679443159943</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>164.4599239989647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>168.0688818921502</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>86.97915439776995</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>109.7532162242328</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.335964134056951</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>278.2853539212524</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>23.25917518540803</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>273.0942536208836</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>103.9661575026753</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>275.8186544966414</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="U28" t="n">
-        <v>13.95740503254189</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24739,16 +24739,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>268.8242079902133</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>126.0900396838164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>113.7908987761685</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>100.0885683469958</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>206.7132681013596</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>16.56157311969793</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>42.02872873825282</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>290.8536263024793</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>392.5634536533187</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>235.6797139073998</v>
+        <v>173.9989569713585</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>41.30204999791744</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>222.7020862222417</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>83.0140681584636</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>191.9153944837845</v>
       </c>
     </row>
     <row r="44">
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>106.3881249561098</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>233.6440512519062</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>96.68977602055426</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>92.60691836965276</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>522442.2480109888</v>
+        <v>781786.9902474433</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>714056.9820799478</v>
+        <v>781786.9902474433</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>781786.990247443</v>
+        <v>781786.9902474433</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861031.9629374745</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861031.9629374743</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374745</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374741</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861031.9629374745</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861031.9629374743</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203966.5811971125</v>
+        <v>305971.6304943088</v>
       </c>
       <c r="C2" t="n">
-        <v>279547.2423401898</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943086</v>
+        <v>305971.6304943088</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="F2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="H2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="K2" t="n">
         <v>340997.0989709205</v>
@@ -26346,16 +26346,16 @@
         <v>340997.0989709206</v>
       </c>
       <c r="M2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="N2" t="n">
         <v>340997.0989709204</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="P2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340997.0989709205</v>
-      </c>
-      <c r="P2" t="n">
-        <v>340997.0989709204</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>308174.1417414041</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.18284596028</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>182072.9798171902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911416</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>71651.52831447162</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.83922824936</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>47552.2657934148</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12754.4749088174</v>
+        <v>17379.72927547097</v>
       </c>
       <c r="C4" t="n">
-        <v>15634.16823746788</v>
+        <v>17379.72927547097</v>
       </c>
       <c r="D4" t="n">
-        <v>17379.72927547096</v>
+        <v>17379.72927547095</v>
       </c>
       <c r="E4" t="n">
         <v>9160.459137079168</v>
       </c>
       <c r="F4" t="n">
-        <v>9160.459137079168</v>
+        <v>9160.459137079182</v>
       </c>
       <c r="G4" t="n">
         <v>9160.459137079168</v>
@@ -26469,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.0818558723</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-551923.6775071642</v>
+        <v>-924325.1175188191</v>
       </c>
       <c r="C6" t="n">
-        <v>-129460.1494945546</v>
+        <v>190426.6660571016</v>
       </c>
       <c r="D6" t="n">
-        <v>96249.94593303266</v>
+        <v>190426.6660571015</v>
       </c>
       <c r="E6" t="n">
-        <v>75457.31945525752</v>
+        <v>71981.13015719691</v>
       </c>
       <c r="F6" t="n">
-        <v>257530.2992724482</v>
+        <v>254054.1099743871</v>
       </c>
       <c r="G6" t="n">
-        <v>257530.2992724479</v>
+        <v>254054.1099743869</v>
       </c>
       <c r="H6" t="n">
-        <v>257530.2992724479</v>
+        <v>254054.1099743872</v>
       </c>
       <c r="I6" t="n">
-        <v>257530.299272448</v>
+        <v>254054.109974387</v>
       </c>
       <c r="J6" t="n">
-        <v>188531.144853334</v>
+        <v>86448.93216440438</v>
       </c>
       <c r="K6" t="n">
-        <v>185878.7709579765</v>
+        <v>254054.109974387</v>
       </c>
       <c r="L6" t="n">
-        <v>232608.4600441987</v>
+        <v>254054.1099743871</v>
       </c>
       <c r="M6" t="n">
-        <v>209978.033479033</v>
+        <v>206501.8441809723</v>
       </c>
       <c r="N6" t="n">
-        <v>257530.299272448</v>
+        <v>254054.1099743869</v>
       </c>
       <c r="O6" t="n">
-        <v>257530.299272448</v>
+        <v>254054.1099743871</v>
       </c>
       <c r="P6" t="n">
-        <v>257530.2992724479</v>
+        <v>254054.109974387</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376848</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261639</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="C3" t="n">
-        <v>239.6556507682064</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985452</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="C4" t="n">
-        <v>278.4010767246577</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387486</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246574</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387486</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246577</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387486</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508278</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958416</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>132.312282993323</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>291.286936740926</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258715</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840431</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934783</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839013</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190908</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662302</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928398</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699496</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452749</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175398</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464134</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>63.2229124209512</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076063</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913579</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616801</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730381</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152847</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884509</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475634</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349508</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867497</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053861</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>7.40151038405785</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526972</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619436</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017478</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490428</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368737</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282508</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>235.582157642014</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595398</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099894</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451904</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153094</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735641</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978881</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746424</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
         <v>557.281137600381</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33271,7 +33271,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.98022089091751</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572285</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>436.2707275254371</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>116.4807223308547</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142397</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808909</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140559</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662056</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873104</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>348.155628697404</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109606</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.3119886183904</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.65087734093964</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169989</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L6" t="n">
-        <v>542.1149567261639</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>433.6189117131273</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319514</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>294.3022689440064</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332332</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892926</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>13.85280893410659</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348417</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>156.5898900231599</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>256.4684548971899</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900913</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212426</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735795</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748829</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349601</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065822</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193729</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127274</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
